--- a/Documentos/PosicionesObjetos.xlsx
+++ b/Documentos/PosicionesObjetos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\OneDrive\Documentos\() UNAMCOMPUTACION\11vo\Computación Grafica Avanzada\Proyecto2\.0 DocumentosProyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\OneDrive\Documentos\() UNAMCOMPUTACION\11vo\Computación Grafica Avanzada\Proyecto2\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EEF524-5ECC-497E-8ADE-C16992C3FF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1971955-8B16-4080-ADC1-A85976A76B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4452" yWindow="0" windowWidth="12552" windowHeight="12360" xr2:uid="{2087185A-5EFE-4DDD-AE7D-767E05F9C834}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89243601-6424-426B-A9E9-401D3AA38A7E}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136:F137"/>
+    <sheetView tabSelected="1" topLeftCell="C87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,12 +530,12 @@
         <v>34</v>
       </c>
       <c r="D2" s="2">
-        <f>((B2*800)/1024)-100</f>
-        <v>372.65625</v>
+        <f>-(((C2*800)/1024)-100)</f>
+        <v>73.4375</v>
       </c>
       <c r="E2" s="2">
-        <f>((C2*800)/1024)-100</f>
-        <v>-73.4375</v>
+        <f>-(((B2*800)/1024)-100)</f>
+        <v>-372.65625</v>
       </c>
       <c r="F2">
         <v>16.36</v>
@@ -549,12 +549,12 @@
         <v>101</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D14" si="0">((B3*800)/1024)-100</f>
-        <v>426.5625</v>
+        <f t="shared" ref="D3:D66" si="0">-(((C3*800)/1024)-100)</f>
+        <v>21.09375</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E14" si="1">((C3*800)/1024)-100</f>
-        <v>-21.09375</v>
+        <f t="shared" ref="E3:E66" si="1">-(((B3*800)/1024)-100)</f>
+        <v>-426.5625</v>
       </c>
       <c r="F3">
         <f>11.31-270</f>
@@ -570,11 +570,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>392.96875</v>
+        <v>-25</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>-392.96875</v>
       </c>
       <c r="F4">
         <f>10.3-360</f>
@@ -590,11 +590,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>388.28125</v>
+        <v>-85.9375</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>-388.28125</v>
       </c>
       <c r="F5">
         <f>18.06-180</f>
@@ -610,11 +610,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>347.65625</v>
+        <v>-136.71875</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>136.71875</v>
+        <v>-347.65625</v>
       </c>
       <c r="F6">
         <v>14.53</v>
@@ -629,11 +629,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>365.625</v>
+        <v>-206.25</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>206.25</v>
+        <v>-365.625</v>
       </c>
       <c r="F7">
         <f>17.28-180</f>
@@ -649,11 +649,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>321.875</v>
+        <v>-250</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>-321.875</v>
       </c>
       <c r="F8">
         <f>29.74-360</f>
@@ -669,11 +669,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>364.0625</v>
+        <v>-308.59375</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>308.59375</v>
+        <v>-364.0625</v>
       </c>
       <c r="F9">
         <f>38.29-270</f>
@@ -689,11 +689,11 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>416.40625</v>
+        <v>-359.375</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>359.375</v>
+        <v>-416.40625</v>
       </c>
       <c r="F10">
         <v>19.29</v>
@@ -708,11 +708,11 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>498.4375</v>
+        <v>-322.65625</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>322.65625</v>
+        <v>-498.4375</v>
       </c>
       <c r="F11">
         <f>33.11-360</f>
@@ -728,11 +728,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>569.53125</v>
+        <v>-288.28125</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>288.28125</v>
+        <v>-569.53125</v>
       </c>
       <c r="F12">
         <f>38.93-180</f>
@@ -748,11 +748,11 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>584.375</v>
+        <v>-229.6875</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>229.6875</v>
+        <v>-584.375</v>
       </c>
       <c r="F13">
         <f>33.69-360</f>
@@ -768,11 +768,11 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>632.03125</v>
+        <v>-162.5</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>162.5</v>
+        <v>-632.03125</v>
       </c>
       <c r="F14">
         <f>34.29-180</f>
@@ -808,12 +808,12 @@
         <v>110</v>
       </c>
       <c r="D16" s="2">
-        <f>((B16*800)/1024)-100</f>
-        <v>-3.90625</v>
+        <f t="shared" si="0"/>
+        <v>14.0625</v>
       </c>
       <c r="E16" s="2">
-        <f>((C16*800)/1024)-100</f>
-        <v>-14.0625</v>
+        <f t="shared" si="1"/>
+        <v>3.90625</v>
       </c>
       <c r="F16">
         <f>28.3-360</f>
@@ -829,12 +829,12 @@
         <v>293</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17:D80" si="2">((B17*800)/1024)-100</f>
-        <v>-25.78125</v>
+        <f t="shared" si="0"/>
+        <v>-128.90625</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17:E80" si="3">((C17*800)/1024)-100</f>
-        <v>128.90625</v>
+        <f t="shared" si="1"/>
+        <v>25.78125</v>
       </c>
       <c r="F17">
         <f>32.35-360</f>
@@ -850,12 +850,12 @@
         <v>377</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="2"/>
-        <v>14.0625</v>
+        <f t="shared" si="0"/>
+        <v>-194.53125</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="3"/>
-        <v>194.53125</v>
+        <f t="shared" si="1"/>
+        <v>-14.0625</v>
       </c>
       <c r="F18">
         <f>11.89-180</f>
@@ -871,12 +871,12 @@
         <v>413</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="2"/>
-        <v>-61.71875</v>
+        <f t="shared" si="0"/>
+        <v>-222.65625</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
-        <v>222.65625</v>
+        <f t="shared" si="1"/>
+        <v>61.71875</v>
       </c>
       <c r="F19">
         <f>31.7-360</f>
@@ -892,12 +892,12 @@
         <v>639</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>-13.28125</v>
+        <f t="shared" si="0"/>
+        <v>-399.21875</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="3"/>
-        <v>399.21875</v>
+        <f t="shared" si="1"/>
+        <v>13.28125</v>
       </c>
       <c r="F20">
         <f>44.03-360</f>
@@ -913,12 +913,12 @@
         <v>871</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="2"/>
-        <v>14.84375</v>
+        <f t="shared" si="0"/>
+        <v>-580.46875</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="3"/>
-        <v>580.46875</v>
+        <f t="shared" si="1"/>
+        <v>-14.84375</v>
       </c>
       <c r="F21">
         <v>22.83</v>
@@ -933,12 +933,12 @@
         <v>971</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="2"/>
-        <v>-87.5</v>
+        <f t="shared" si="0"/>
+        <v>-658.59375</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="3"/>
-        <v>658.59375</v>
+        <f t="shared" si="1"/>
+        <v>87.5</v>
       </c>
       <c r="F22">
         <v>42.83</v>
@@ -953,12 +953,12 @@
         <v>1000</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="2"/>
-        <v>17.1875</v>
+        <f t="shared" si="0"/>
+        <v>-681.25</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="3"/>
-        <v>681.25</v>
+        <f t="shared" si="1"/>
+        <v>-17.1875</v>
       </c>
       <c r="F23">
         <f>22.04-90</f>
@@ -974,12 +974,12 @@
         <v>17</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="2"/>
-        <v>129.6875</v>
+        <f t="shared" si="0"/>
+        <v>86.71875</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="3"/>
-        <v>-86.71875</v>
+        <f t="shared" si="1"/>
+        <v>-129.6875</v>
       </c>
       <c r="F24">
         <f>23.96-270</f>
@@ -995,12 +995,12 @@
         <v>286</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="2"/>
-        <v>112.5</v>
+        <f t="shared" si="0"/>
+        <v>-123.4375</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="3"/>
-        <v>123.4375</v>
+        <f t="shared" si="1"/>
+        <v>-112.5</v>
       </c>
       <c r="F25">
         <v>28.95</v>
@@ -1015,12 +1015,12 @@
         <v>417</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="2"/>
-        <v>99.21875</v>
+        <f t="shared" si="0"/>
+        <v>-225.78125</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="3"/>
-        <v>225.78125</v>
+        <f t="shared" si="1"/>
+        <v>-99.21875</v>
       </c>
       <c r="F26">
         <v>-270</v>
@@ -1035,12 +1035,12 @@
         <v>138</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="2"/>
-        <v>278.125</v>
+        <f t="shared" si="0"/>
+        <v>-7.8125</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="3"/>
-        <v>7.8125</v>
+        <f t="shared" si="1"/>
+        <v>-278.125</v>
       </c>
       <c r="F27">
         <f>24.44-360</f>
@@ -1055,12 +1055,12 @@
         <v>246</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="2"/>
-        <v>235.15625</v>
+        <f t="shared" si="0"/>
+        <v>-92.1875</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <f t="shared" si="1"/>
+        <v>-235.15625</v>
       </c>
       <c r="F28">
         <f>41.5-270</f>
@@ -1075,12 +1075,12 @@
         <v>535</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="2"/>
-        <v>219.53125</v>
+        <f t="shared" si="0"/>
+        <v>-317.96875</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="3"/>
-        <v>317.96875</v>
+        <f t="shared" si="1"/>
+        <v>-219.53125</v>
       </c>
       <c r="F29">
         <f>29.05-360</f>
@@ -1095,12 +1095,12 @@
         <v>742</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="2"/>
-        <v>285.9375</v>
+        <f t="shared" si="0"/>
+        <v>-479.6875</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="3"/>
-        <v>479.6875</v>
+        <f t="shared" si="1"/>
+        <v>-285.9375</v>
       </c>
       <c r="F30">
         <f>28.74-90</f>
@@ -1115,12 +1115,12 @@
         <v>871</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="2"/>
-        <v>359.375</v>
+        <f t="shared" si="0"/>
+        <v>-580.46875</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="3"/>
-        <v>580.46875</v>
+        <f t="shared" si="1"/>
+        <v>-359.375</v>
       </c>
       <c r="F31">
         <f>30.74-90</f>
@@ -1135,12 +1135,12 @@
         <v>983</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="2"/>
-        <v>286.71875</v>
+        <f t="shared" si="0"/>
+        <v>-667.96875</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="3"/>
-        <v>667.96875</v>
+        <f t="shared" si="1"/>
+        <v>-286.71875</v>
       </c>
       <c r="F32">
         <f>31.26-90</f>
@@ -1155,12 +1155,12 @@
         <v>665</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="2"/>
-        <v>465.625</v>
+        <f t="shared" si="0"/>
+        <v>-419.53125</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="3"/>
-        <v>419.53125</v>
+        <f t="shared" si="1"/>
+        <v>-465.625</v>
       </c>
       <c r="F33">
         <f>8.37-90</f>
@@ -1175,12 +1175,12 @@
         <v>866</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="2"/>
-        <v>354.6875</v>
+        <f t="shared" si="0"/>
+        <v>-576.5625</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="3"/>
-        <v>576.5625</v>
+        <f t="shared" si="1"/>
+        <v>-354.6875</v>
       </c>
       <c r="F34">
         <f>27.98-90</f>
@@ -1195,12 +1195,12 @@
         <v>19</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="2"/>
-        <v>505.46875</v>
+        <f t="shared" si="0"/>
+        <v>85.15625</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="3"/>
-        <v>-85.15625</v>
+        <f t="shared" si="1"/>
+        <v>-505.46875</v>
       </c>
       <c r="F35">
         <f>20.56-270</f>
@@ -1215,12 +1215,12 @@
         <v>206</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="2"/>
-        <v>508.59375</v>
+        <f t="shared" si="0"/>
+        <v>-60.9375</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <f t="shared" si="1"/>
+        <v>-508.59375</v>
       </c>
       <c r="F36">
         <f>20.85-180</f>
@@ -1235,12 +1235,12 @@
         <v>387</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="2"/>
-        <v>502.34375</v>
+        <f t="shared" si="0"/>
+        <v>-202.34375</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="3"/>
-        <v>202.34375</v>
+        <f t="shared" si="1"/>
+        <v>-502.34375</v>
       </c>
       <c r="F37">
         <f>14.93-270</f>
@@ -1255,12 +1255,12 @@
         <v>826</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="2"/>
-        <v>517.1875</v>
+        <f t="shared" si="0"/>
+        <v>-545.3125</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="3"/>
-        <v>545.3125</v>
+        <f t="shared" si="1"/>
+        <v>-517.1875</v>
       </c>
       <c r="F38">
         <f>15.95-90</f>
@@ -1275,12 +1275,12 @@
         <v>124</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="2"/>
-        <v>629.6875</v>
+        <f t="shared" si="0"/>
+        <v>3.125</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="3"/>
-        <v>-3.125</v>
+        <f t="shared" si="1"/>
+        <v>-629.6875</v>
       </c>
       <c r="F39">
         <f>42.8-360</f>
@@ -1295,12 +1295,12 @@
         <v>454</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="2"/>
-        <v>684.375</v>
+        <f t="shared" si="0"/>
+        <v>-254.6875</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="3"/>
-        <v>254.6875</v>
+        <f t="shared" si="1"/>
+        <v>-684.375</v>
       </c>
       <c r="F40">
         <v>-180</v>
@@ -1314,12 +1314,12 @@
         <v>641</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="2"/>
-        <v>623.4375</v>
+        <f t="shared" si="0"/>
+        <v>-400.78125</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="3"/>
-        <v>400.78125</v>
+        <f t="shared" si="1"/>
+        <v>-623.4375</v>
       </c>
       <c r="F41">
         <f>32.47-180</f>
@@ -1334,12 +1334,12 @@
         <v>926</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="2"/>
-        <v>672.65625</v>
+        <f t="shared" si="0"/>
+        <v>-623.4375</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="3"/>
-        <v>623.4375</v>
+        <f t="shared" si="1"/>
+        <v>-672.65625</v>
       </c>
       <c r="F42">
         <f>30.7-90</f>
@@ -1377,12 +1377,12 @@
         <v>86</v>
       </c>
       <c r="D44" s="2">
-        <f>((B44*800)/1024)-100</f>
-        <v>15.625</v>
+        <f t="shared" si="0"/>
+        <v>32.8125</v>
       </c>
       <c r="E44" s="2">
-        <f>((C44*800)/1024)-100</f>
-        <v>-32.8125</v>
+        <f t="shared" si="1"/>
+        <v>-15.625</v>
       </c>
       <c r="F44">
         <f>34.11-270</f>
@@ -1400,12 +1400,12 @@
         <v>882</v>
       </c>
       <c r="D45" s="2">
-        <f>((B45*800)/1024)-100</f>
-        <v>328.125</v>
+        <f t="shared" si="0"/>
+        <v>-589.0625</v>
       </c>
       <c r="E45" s="2">
-        <f>((C45*800)/1024)-100</f>
-        <v>589.0625</v>
+        <f t="shared" si="1"/>
+        <v>-328.125</v>
       </c>
       <c r="F45">
         <f>31.43-90</f>
@@ -1423,12 +1423,12 @@
         <v>599</v>
       </c>
       <c r="D46" s="2">
-        <f>((B46*800)/1024)-100</f>
-        <v>614.0625</v>
+        <f t="shared" si="0"/>
+        <v>-367.96875</v>
       </c>
       <c r="E46" s="2">
-        <f>((C46*800)/1024)-100</f>
-        <v>367.96875</v>
+        <f t="shared" si="1"/>
+        <v>-614.0625</v>
       </c>
       <c r="F46">
         <f>21.5-90</f>
@@ -1446,12 +1446,12 @@
         <v>419</v>
       </c>
       <c r="D47" s="2">
-        <f>((B47*800)/1024)-100</f>
-        <v>71.09375</v>
+        <f t="shared" si="0"/>
+        <v>-227.34375</v>
       </c>
       <c r="E47" s="2">
-        <f>((C47*800)/1024)-100</f>
-        <v>227.34375</v>
+        <f t="shared" si="1"/>
+        <v>-71.09375</v>
       </c>
       <c r="F47">
         <f>11.84-2700</f>
@@ -1469,12 +1469,12 @@
         <v>143</v>
       </c>
       <c r="D48" s="2">
-        <f>((B48*800)/1024)-100</f>
-        <v>494.53125</v>
+        <f t="shared" si="0"/>
+        <v>-11.71875</v>
       </c>
       <c r="E48" s="2">
-        <f>((C48*800)/1024)-100</f>
-        <v>11.71875</v>
+        <f t="shared" si="1"/>
+        <v>-494.53125</v>
       </c>
       <c r="F48">
         <f>33.41-180</f>
@@ -1492,12 +1492,12 @@
         <v>982</v>
       </c>
       <c r="D49" s="2">
-        <f>((B49*800)/1024)-100</f>
-        <v>-64.0625</v>
+        <f t="shared" si="0"/>
+        <v>-667.1875</v>
       </c>
       <c r="E49" s="2">
-        <f>((C49*800)/1024)-100</f>
-        <v>667.1875</v>
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
       </c>
       <c r="F49">
         <v>44.12</v>
@@ -1514,12 +1514,12 @@
         <v>102</v>
       </c>
       <c r="D50" s="2">
-        <f>((B50*800)/1024)-100</f>
-        <v>653.90625</v>
+        <f t="shared" si="0"/>
+        <v>20.3125</v>
       </c>
       <c r="E50" s="2">
-        <f>((C50*800)/1024)-100</f>
-        <v>-20.3125</v>
+        <f t="shared" si="1"/>
+        <v>-653.90625</v>
       </c>
       <c r="F50">
         <f>37-270</f>
@@ -1554,12 +1554,12 @@
         <v>46</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="2"/>
-        <v>44.53125</v>
+        <f t="shared" si="0"/>
+        <v>64.0625</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="3"/>
-        <v>-64.0625</v>
+        <f t="shared" si="1"/>
+        <v>-44.53125</v>
       </c>
       <c r="F52">
         <f>42.36-180</f>
@@ -1574,12 +1574,12 @@
         <v>48</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="2"/>
-        <v>306.25</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="3"/>
-        <v>-62.5</v>
+        <f t="shared" si="1"/>
+        <v>-306.25</v>
       </c>
       <c r="F53">
         <f>-31.72-180</f>
@@ -1594,12 +1594,12 @@
         <v>338</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="2"/>
-        <v>94.53125</v>
+        <f t="shared" si="0"/>
+        <v>-164.0625</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="3"/>
-        <v>164.0625</v>
+        <f t="shared" si="1"/>
+        <v>-94.53125</v>
       </c>
       <c r="F54">
         <f>38.96-180</f>
@@ -1614,12 +1614,12 @@
         <v>593</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="2"/>
-        <v>191.40625</v>
+        <f t="shared" si="0"/>
+        <v>-363.28125</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="3"/>
-        <v>363.28125</v>
+        <f t="shared" si="1"/>
+        <v>-191.40625</v>
       </c>
       <c r="F55">
         <f>26.08-270</f>
@@ -1634,12 +1634,12 @@
         <v>803</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="2"/>
-        <v>-82.03125</v>
+        <f t="shared" si="0"/>
+        <v>-527.34375</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="3"/>
-        <v>527.34375</v>
+        <f t="shared" si="1"/>
+        <v>82.03125</v>
       </c>
       <c r="F56">
         <v>15.57</v>
@@ -1653,12 +1653,12 @@
         <v>847</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="2"/>
-        <v>110.9375</v>
+        <f t="shared" si="0"/>
+        <v>-561.71875</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="3"/>
-        <v>561.71875</v>
+        <f t="shared" si="1"/>
+        <v>-110.9375</v>
       </c>
       <c r="F57">
         <f>32.62-90</f>
@@ -1673,12 +1673,12 @@
         <v>55</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="2"/>
-        <v>604.6875</v>
+        <f t="shared" si="0"/>
+        <v>57.03125</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="3"/>
-        <v>-57.03125</v>
+        <f t="shared" si="1"/>
+        <v>-604.6875</v>
       </c>
       <c r="F58">
         <f>30.07-270</f>
@@ -1693,12 +1693,12 @@
         <v>288</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="2"/>
-        <v>526.5625</v>
+        <f t="shared" si="0"/>
+        <v>-125</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="3"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>-526.5625</v>
       </c>
       <c r="F59">
         <f>21.04-180</f>
@@ -1713,12 +1713,12 @@
         <v>545</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="2"/>
-        <v>669.53125</v>
+        <f t="shared" si="0"/>
+        <v>-325.78125</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="3"/>
-        <v>325.78125</v>
+        <f t="shared" si="1"/>
+        <v>-669.53125</v>
       </c>
       <c r="F60">
         <f>30-270</f>
@@ -1733,12 +1733,12 @@
         <v>838</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="2"/>
-        <v>488.28125</v>
+        <f t="shared" si="0"/>
+        <v>-554.6875</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="3"/>
-        <v>554.6875</v>
+        <f t="shared" si="1"/>
+        <v>-488.28125</v>
       </c>
       <c r="F61">
         <f>20.35-180</f>
@@ -1776,12 +1776,12 @@
         <v>95</v>
       </c>
       <c r="D63" s="2">
-        <f>((B63*800)/1024)-100</f>
-        <v>196.875</v>
+        <f t="shared" si="0"/>
+        <v>25.78125</v>
       </c>
       <c r="E63" s="2">
-        <f>((C63*800)/1024)-100</f>
-        <v>-25.78125</v>
+        <f t="shared" si="1"/>
+        <v>-196.875</v>
       </c>
       <c r="F63">
         <v>180</v>
@@ -1798,12 +1798,12 @@
         <v>616</v>
       </c>
       <c r="D64" s="2">
-        <f>((B64*800)/1024)-100</f>
-        <v>46.875</v>
+        <f t="shared" si="0"/>
+        <v>-381.25</v>
       </c>
       <c r="E64" s="2">
-        <f>((C64*800)/1024)-100</f>
-        <v>381.25</v>
+        <f t="shared" si="1"/>
+        <v>-46.875</v>
       </c>
       <c r="F64">
         <v>-137.63999999999999</v>
@@ -1820,12 +1820,12 @@
         <v>98</v>
       </c>
       <c r="D65" s="2">
-        <f>((B65*800)/1024)-100</f>
-        <v>507.8125</v>
+        <f t="shared" si="0"/>
+        <v>23.4375</v>
       </c>
       <c r="E65" s="2">
-        <f>((C65*800)/1024)-100</f>
-        <v>-23.4375</v>
+        <f t="shared" si="1"/>
+        <v>-507.8125</v>
       </c>
       <c r="F65">
         <v>-180</v>
@@ -1842,12 +1842,12 @@
         <v>624</v>
       </c>
       <c r="D66" s="2">
-        <f>((B66*800)/1024)-100</f>
-        <v>560.9375</v>
+        <f t="shared" si="0"/>
+        <v>-387.5</v>
       </c>
       <c r="E66" s="2">
-        <f>((C66*800)/1024)-100</f>
-        <v>387.5</v>
+        <f t="shared" si="1"/>
+        <v>-560.9375</v>
       </c>
       <c r="F66">
         <f>32.35-90</f>
@@ -1865,12 +1865,12 @@
         <v>183</v>
       </c>
       <c r="D67" s="2">
-        <f>((B67*800)/1024)-100</f>
-        <v>253.90625</v>
+        <f t="shared" ref="D67:D130" si="2">-(((C67*800)/1024)-100)</f>
+        <v>-42.96875</v>
       </c>
       <c r="E67" s="2">
-        <f>((C67*800)/1024)-100</f>
-        <v>42.96875</v>
+        <f t="shared" ref="E67:E130" si="3">-(((B67*800)/1024)-100)</f>
+        <v>-253.90625</v>
       </c>
       <c r="F67">
         <f>25.46-360</f>
@@ -1888,12 +1888,12 @@
         <v>703</v>
       </c>
       <c r="D68" s="2">
-        <f>((B68*800)/1024)-100</f>
-        <v>-83.59375</v>
+        <f t="shared" si="2"/>
+        <v>-449.21875</v>
       </c>
       <c r="E68" s="2">
-        <f>((C68*800)/1024)-100</f>
-        <v>449.21875</v>
+        <f t="shared" si="3"/>
+        <v>83.59375</v>
       </c>
       <c r="F68">
         <v>33.340000000000003</v>
@@ -1910,12 +1910,12 @@
         <v>236</v>
       </c>
       <c r="D69" s="2">
-        <f>((B69*800)/1024)-100</f>
-        <v>583.59375</v>
+        <f t="shared" si="2"/>
+        <v>-84.375</v>
       </c>
       <c r="E69" s="2">
-        <f>((C69*800)/1024)-100</f>
-        <v>84.375</v>
+        <f t="shared" si="3"/>
+        <v>-583.59375</v>
       </c>
       <c r="F69">
         <f>41.19-360</f>
@@ -1933,12 +1933,12 @@
         <v>796</v>
       </c>
       <c r="D70" s="2">
-        <f>((B70*800)/1024)-100</f>
-        <v>547.65625</v>
+        <f t="shared" si="2"/>
+        <v>-521.875</v>
       </c>
       <c r="E70" s="2">
-        <f>((C70*800)/1024)-100</f>
-        <v>521.875</v>
+        <f t="shared" si="3"/>
+        <v>-547.65625</v>
       </c>
       <c r="F70">
         <f>41.05-270</f>
@@ -1956,12 +1956,12 @@
         <v>343</v>
       </c>
       <c r="D71" s="2">
-        <f>((B71*800)/1024)-100</f>
-        <v>-42.96875</v>
+        <f t="shared" si="2"/>
+        <v>-167.96875</v>
       </c>
       <c r="E71" s="2">
-        <f>((C71*800)/1024)-100</f>
-        <v>167.96875</v>
+        <f t="shared" si="3"/>
+        <v>42.96875</v>
       </c>
       <c r="F71">
         <f>43.6-360</f>
@@ -1979,12 +1979,12 @@
         <v>983</v>
       </c>
       <c r="D72" s="2">
-        <f>((B72*800)/1024)-100</f>
-        <v>204.6875</v>
+        <f t="shared" si="2"/>
+        <v>-667.96875</v>
       </c>
       <c r="E72" s="2">
-        <f>((C72*800)/1024)-100</f>
-        <v>667.96875</v>
+        <f t="shared" si="3"/>
+        <v>-204.6875</v>
       </c>
       <c r="F72">
         <f>36.25-90</f>
@@ -2002,12 +2002,12 @@
         <v>656</v>
       </c>
       <c r="D73" s="2">
-        <f>((B73*800)/1024)-100</f>
-        <v>351.5625</v>
+        <f t="shared" si="2"/>
+        <v>-412.5</v>
       </c>
       <c r="E73" s="2">
-        <f>((C73*800)/1024)-100</f>
-        <v>412.5</v>
+        <f t="shared" si="3"/>
+        <v>-351.5625</v>
       </c>
       <c r="F73">
         <f>41.19-360</f>
@@ -2025,12 +2025,12 @@
         <v>397</v>
       </c>
       <c r="D74" s="2">
-        <f>((B74*800)/1024)-100</f>
-        <v>221.09375</v>
+        <f t="shared" si="2"/>
+        <v>-210.15625</v>
       </c>
       <c r="E74" s="2">
-        <f>((C74*800)/1024)-100</f>
-        <v>210.15625</v>
+        <f t="shared" si="3"/>
+        <v>-221.09375</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2047,12 +2047,12 @@
         <v>25</v>
       </c>
       <c r="D75" s="2">
-        <f>((B75*800)/1024)-100</f>
-        <v>628.90625</v>
+        <f t="shared" si="2"/>
+        <v>80.46875</v>
       </c>
       <c r="E75" s="2">
-        <f>((C75*800)/1024)-100</f>
-        <v>-80.46875</v>
+        <f t="shared" si="3"/>
+        <v>-628.90625</v>
       </c>
       <c r="F75">
         <f>37.79-270</f>
@@ -2070,12 +2070,12 @@
         <v>660</v>
       </c>
       <c r="D76" s="2">
-        <f>((B76*800)/1024)-100</f>
-        <v>352.34375</v>
+        <f t="shared" si="2"/>
+        <v>-415.625</v>
       </c>
       <c r="E76" s="2">
-        <f>((C76*800)/1024)-100</f>
-        <v>415.625</v>
+        <f t="shared" si="3"/>
+        <v>-352.34375</v>
       </c>
       <c r="F76">
         <f>30.02-90</f>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="D78" s="2">
         <f t="shared" si="2"/>
-        <v>-12.5</v>
+        <v>-21.09375</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="3"/>
-        <v>21.09375</v>
+        <v>12.5</v>
       </c>
       <c r="F78">
         <f>18.68-360</f>
@@ -2131,11 +2131,11 @@
       </c>
       <c r="D79" s="2">
         <f t="shared" si="2"/>
-        <v>-5.46875</v>
+        <v>-153.125</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="3"/>
-        <v>153.125</v>
+        <v>5.46875</v>
       </c>
       <c r="F79">
         <f>45.6-270</f>
@@ -2151,11 +2151,11 @@
       </c>
       <c r="D80" s="2">
         <f t="shared" si="2"/>
-        <v>221.875</v>
+        <v>-283.59375</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="3"/>
-        <v>283.59375</v>
+        <v>-221.875</v>
       </c>
       <c r="F80">
         <f>13.71-360</f>
@@ -2170,12 +2170,12 @@
         <v>876</v>
       </c>
       <c r="D81" s="2">
-        <f>((B81*800)/1024)-100</f>
-        <v>91.40625</v>
+        <f t="shared" si="2"/>
+        <v>-584.375</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" ref="D81:E106" si="4">((C81*800)/1024)-100</f>
-        <v>584.375</v>
+        <f t="shared" si="3"/>
+        <v>-91.40625</v>
       </c>
       <c r="F81">
         <f>32.12-270</f>
@@ -2190,12 +2190,12 @@
         <v>125</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="4"/>
-        <v>585.15625</v>
+        <f t="shared" si="2"/>
+        <v>2.34375</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="4"/>
-        <v>-2.34375</v>
+        <f t="shared" si="3"/>
+        <v>-585.15625</v>
       </c>
       <c r="F82">
         <f>33.69-270</f>
@@ -2210,12 +2210,12 @@
         <v>186</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="4"/>
-        <v>348.4375</v>
+        <f t="shared" si="2"/>
+        <v>-45.3125</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="4"/>
-        <v>45.3125</v>
+        <f t="shared" si="3"/>
+        <v>-348.4375</v>
       </c>
       <c r="F83">
         <f>18.7-270</f>
@@ -2230,12 +2230,12 @@
         <v>250</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="4"/>
-        <v>487.5</v>
+        <f t="shared" si="2"/>
+        <v>-95.3125</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="4"/>
-        <v>95.3125</v>
+        <f t="shared" si="3"/>
+        <v>-487.5</v>
       </c>
       <c r="F84">
         <f>17.57-270</f>
@@ -2250,12 +2250,12 @@
         <v>755</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>-489.84375</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" si="4"/>
-        <v>489.84375</v>
+        <f t="shared" si="3"/>
+        <v>-300</v>
       </c>
       <c r="F85">
         <f>31.94-360</f>
@@ -2270,12 +2270,12 @@
         <v>911</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" si="4"/>
-        <v>458.59375</v>
+        <f t="shared" si="2"/>
+        <v>-611.71875</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="4"/>
-        <v>611.71875</v>
+        <f t="shared" si="3"/>
+        <v>-458.59375</v>
       </c>
       <c r="F86">
         <f>15.1-90</f>
@@ -2290,12 +2290,12 @@
         <v>811</v>
       </c>
       <c r="D87" s="2">
-        <f>((B87*800)/1024)-100</f>
-        <v>664.0625</v>
+        <f t="shared" si="2"/>
+        <v>-533.59375</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="4"/>
-        <v>533.59375</v>
+        <f t="shared" si="3"/>
+        <v>-664.0625</v>
       </c>
       <c r="F87">
         <f>35.97</f>
@@ -2330,12 +2330,12 @@
         <v>206</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" ref="D88:E137" si="5">((B89*800)/1024)-100</f>
-        <v>57.03125</v>
+        <f t="shared" si="2"/>
+        <v>-60.9375</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="4"/>
-        <v>60.9375</v>
+        <f t="shared" si="3"/>
+        <v>-57.03125</v>
       </c>
       <c r="F89">
         <v>38.450000000000003</v>
@@ -2349,12 +2349,12 @@
         <v>379</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="5"/>
-        <v>133.59375</v>
+        <f t="shared" si="2"/>
+        <v>-196.09375</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="4"/>
-        <v>196.09375</v>
+        <f t="shared" si="3"/>
+        <v>-133.59375</v>
       </c>
       <c r="F90">
         <f>10.98-360</f>
@@ -2369,12 +2369,12 @@
         <v>325</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="5"/>
-        <v>292.1875</v>
+        <f t="shared" si="2"/>
+        <v>-153.90625</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="4"/>
-        <v>153.90625</v>
+        <f t="shared" si="3"/>
+        <v>-292.1875</v>
       </c>
       <c r="F91">
         <f>24.84-360</f>
@@ -2389,12 +2389,12 @@
         <v>521</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="5"/>
-        <v>-70.3125</v>
+        <f t="shared" si="2"/>
+        <v>-307.03125</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="4"/>
-        <v>307.03125</v>
+        <f t="shared" si="3"/>
+        <v>70.3125</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2408,12 +2408,12 @@
         <v>684</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="5"/>
-        <v>255.46875</v>
+        <f t="shared" si="2"/>
+        <v>-434.375</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="4"/>
-        <v>434.375</v>
+        <f t="shared" si="3"/>
+        <v>-255.46875</v>
       </c>
       <c r="F93">
         <v>40.6</v>
@@ -2427,12 +2427,12 @@
         <v>825</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="5"/>
-        <v>170.3125</v>
+        <f t="shared" si="2"/>
+        <v>-544.53125</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="4"/>
-        <v>544.53125</v>
+        <f t="shared" si="3"/>
+        <v>-170.3125</v>
       </c>
       <c r="F94">
         <f>42.2</f>
@@ -2447,12 +2447,12 @@
         <v>882</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="5"/>
-        <v>-48.4375</v>
+        <f t="shared" si="2"/>
+        <v>-589.0625</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" si="4"/>
-        <v>589.0625</v>
+        <f t="shared" si="3"/>
+        <v>48.4375</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2466,12 +2466,12 @@
         <v>80</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="5"/>
-        <v>346.09375</v>
+        <f t="shared" si="2"/>
+        <v>37.5</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="4"/>
-        <v>-37.5</v>
+        <f t="shared" si="3"/>
+        <v>-346.09375</v>
       </c>
       <c r="F96">
         <f>24.27-360</f>
@@ -2486,12 +2486,12 @@
         <v>39</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="5"/>
-        <v>454.6875</v>
+        <f t="shared" si="2"/>
+        <v>69.53125</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="4"/>
-        <v>-69.53125</v>
+        <f t="shared" si="3"/>
+        <v>-454.6875</v>
       </c>
       <c r="F97">
         <f>36.12-180</f>
@@ -2506,12 +2506,12 @@
         <v>44</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="5"/>
-        <v>548.4375</v>
+        <f t="shared" si="2"/>
+        <v>65.625</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="4"/>
-        <v>-65.625</v>
+        <f t="shared" si="3"/>
+        <v>-548.4375</v>
       </c>
       <c r="F98">
         <v>-270</v>
@@ -2525,12 +2525,12 @@
         <v>229</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="5"/>
-        <v>670.3125</v>
+        <f t="shared" si="2"/>
+        <v>-78.90625</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="4"/>
-        <v>78.90625</v>
+        <f t="shared" si="3"/>
+        <v>-670.3125</v>
       </c>
       <c r="F99" s="6">
         <f>43.32-180</f>
@@ -2545,12 +2545,12 @@
         <v>345</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="5"/>
-        <v>478.125</v>
+        <f t="shared" si="2"/>
+        <v>-169.53125</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="4"/>
-        <v>169.53125</v>
+        <f t="shared" si="3"/>
+        <v>-478.125</v>
       </c>
       <c r="F100" s="6">
         <f>31.87-180</f>
@@ -2565,12 +2565,12 @@
         <v>372</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="5"/>
-        <v>579.6875</v>
+        <f t="shared" si="2"/>
+        <v>-190.625</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="4"/>
-        <v>190.625</v>
+        <f t="shared" si="3"/>
+        <v>-579.6875</v>
       </c>
       <c r="F101" s="6">
         <f>33.69-360</f>
@@ -2585,12 +2585,12 @@
         <v>682</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="5"/>
-        <v>417.1875</v>
+        <f t="shared" si="2"/>
+        <v>-432.8125</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" si="4"/>
-        <v>432.8125</v>
+        <f t="shared" si="3"/>
+        <v>-417.1875</v>
       </c>
       <c r="F102" s="6">
         <f>11.73-180</f>
@@ -2605,12 +2605,12 @@
         <v>750</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="5"/>
-        <v>573.4375</v>
+        <f t="shared" si="2"/>
+        <v>-485.9375</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="4"/>
-        <v>485.9375</v>
+        <f t="shared" si="3"/>
+        <v>-573.4375</v>
       </c>
       <c r="F103" s="6">
         <f>19.23-90</f>
@@ -2625,12 +2625,12 @@
         <v>798</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="5"/>
-        <v>400.78125</v>
+        <f t="shared" si="2"/>
+        <v>-523.4375</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="4"/>
-        <v>523.4375</v>
+        <f t="shared" si="3"/>
+        <v>-400.78125</v>
       </c>
       <c r="F104" s="6">
         <f>28.74-180</f>
@@ -2645,12 +2645,12 @@
         <v>900</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="5"/>
-        <v>531.25</v>
+        <f t="shared" si="2"/>
+        <v>-603.125</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="4"/>
-        <v>603.125</v>
+        <f t="shared" si="3"/>
+        <v>-531.25</v>
       </c>
       <c r="F105" s="6">
         <f>24.52-270</f>
@@ -2685,12 +2685,12 @@
         <v>433</v>
       </c>
       <c r="D107" s="2">
-        <f>((B107*800)/1024)-100</f>
-        <v>-15.625</v>
+        <f t="shared" si="2"/>
+        <v>-238.28125</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="5"/>
-        <v>238.28125</v>
+        <f t="shared" si="3"/>
+        <v>15.625</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2704,12 +2704,12 @@
         <v>469</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="5"/>
-        <v>152.34375</v>
+        <f t="shared" si="2"/>
+        <v>-266.40625</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="5"/>
-        <v>266.40625</v>
+        <f t="shared" si="3"/>
+        <v>-152.34375</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2723,12 +2723,12 @@
         <v>781</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="5"/>
-        <v>15.625</v>
+        <f t="shared" si="2"/>
+        <v>-510.15625</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" si="5"/>
-        <v>510.15625</v>
+        <f t="shared" si="3"/>
+        <v>-15.625</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2742,12 +2742,12 @@
         <v>787</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" si="5"/>
-        <v>250.78125</v>
+        <f t="shared" si="2"/>
+        <v>-514.84375</v>
       </c>
       <c r="E110" s="2">
-        <f t="shared" si="5"/>
-        <v>514.84375</v>
+        <f t="shared" si="3"/>
+        <v>-250.78125</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2761,12 +2761,12 @@
         <v>183</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" si="5"/>
-        <v>550</v>
+        <f t="shared" si="2"/>
+        <v>-42.96875</v>
       </c>
       <c r="E111" s="2">
-        <f t="shared" si="5"/>
-        <v>42.96875</v>
+        <f t="shared" si="3"/>
+        <v>-550</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2780,12 +2780,12 @@
         <v>489</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="5"/>
-        <v>637.5</v>
+        <f t="shared" si="2"/>
+        <v>-282.03125</v>
       </c>
       <c r="E112" s="2">
-        <f t="shared" si="5"/>
-        <v>282.03125</v>
+        <f t="shared" si="3"/>
+        <v>-637.5</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2799,12 +2799,12 @@
         <v>772</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" si="5"/>
-        <v>456.25</v>
+        <f t="shared" si="2"/>
+        <v>-503.125</v>
       </c>
       <c r="E113" s="2">
-        <f t="shared" si="5"/>
-        <v>503.125</v>
+        <f t="shared" si="3"/>
+        <v>-456.25</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2841,12 +2841,12 @@
         <v>143</v>
       </c>
       <c r="D115" s="2">
-        <f>((B115*800)/1024)-100</f>
-        <v>188.28125</v>
+        <f t="shared" si="2"/>
+        <v>-11.71875</v>
       </c>
       <c r="E115" s="2">
-        <f>((C115*800)/1024)-100</f>
-        <v>11.71875</v>
+        <f t="shared" si="3"/>
+        <v>-188.28125</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2863,12 +2863,12 @@
         <v>567</v>
       </c>
       <c r="D116" s="2">
-        <f>((B116*800)/1024)-100</f>
-        <v>157.03125</v>
+        <f t="shared" si="2"/>
+        <v>-342.96875</v>
       </c>
       <c r="E116" s="2">
-        <f>((C116*800)/1024)-100</f>
-        <v>342.96875</v>
+        <f t="shared" si="3"/>
+        <v>-157.03125</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2885,12 +2885,12 @@
         <v>975</v>
       </c>
       <c r="D117" s="2">
-        <f>((B117*800)/1024)-100</f>
-        <v>154.6875</v>
+        <f t="shared" si="2"/>
+        <v>-661.71875</v>
       </c>
       <c r="E117" s="2">
-        <f>((C117*800)/1024)-100</f>
-        <v>661.71875</v>
+        <f t="shared" si="3"/>
+        <v>-154.6875</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2907,12 +2907,12 @@
         <v>462</v>
       </c>
       <c r="D118" s="2">
-        <f>((B118*800)/1024)-100</f>
-        <v>422.65625</v>
+        <f t="shared" si="2"/>
+        <v>-260.9375</v>
       </c>
       <c r="E118" s="2">
-        <f>((C118*800)/1024)-100</f>
-        <v>260.9375</v>
+        <f t="shared" si="3"/>
+        <v>-422.65625</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2929,12 +2929,12 @@
         <v>700</v>
       </c>
       <c r="D119" s="2">
-        <f>((B119*800)/1024)-100</f>
-        <v>507.03125</v>
+        <f t="shared" si="2"/>
+        <v>-446.875</v>
       </c>
       <c r="E119" s="2">
-        <f>((C119*800)/1024)-100</f>
-        <v>446.875</v>
+        <f t="shared" si="3"/>
+        <v>-507.03125</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2951,12 +2951,12 @@
         <v>993</v>
       </c>
       <c r="D120" s="2">
-        <f>((B120*800)/1024)-100</f>
-        <v>510.15625</v>
+        <f t="shared" si="2"/>
+        <v>-675.78125</v>
       </c>
       <c r="E120" s="2">
-        <f>((C120*800)/1024)-100</f>
-        <v>675.78125</v>
+        <f t="shared" si="3"/>
+        <v>-510.15625</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2973,12 +2973,12 @@
         <v>263</v>
       </c>
       <c r="D121" s="2">
-        <f>((B121*800)/1024)-100</f>
-        <v>31.25</v>
+        <f t="shared" si="2"/>
+        <v>-105.46875</v>
       </c>
       <c r="E121" s="2">
-        <f>((C121*800)/1024)-100</f>
-        <v>105.46875</v>
+        <f t="shared" si="3"/>
+        <v>-31.25</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2995,12 +2995,12 @@
         <v>655</v>
       </c>
       <c r="D122" s="2">
-        <f>((B122*800)/1024)-100</f>
-        <v>47.65625</v>
+        <f t="shared" si="2"/>
+        <v>-411.71875</v>
       </c>
       <c r="E122" s="2">
-        <f>((C122*800)/1024)-100</f>
-        <v>411.71875</v>
+        <f t="shared" si="3"/>
+        <v>-47.65625</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3017,12 +3017,12 @@
         <v>261</v>
       </c>
       <c r="D123" s="2">
-        <f>((B123*800)/1024)-100</f>
-        <v>440.625</v>
+        <f t="shared" si="2"/>
+        <v>-103.90625</v>
       </c>
       <c r="E123" s="2">
-        <f>((C123*800)/1024)-100</f>
-        <v>103.90625</v>
+        <f t="shared" si="3"/>
+        <v>-440.625</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3039,12 +3039,12 @@
         <v>621</v>
       </c>
       <c r="D124" s="2">
-        <f>((B124*800)/1024)-100</f>
-        <v>666.40625</v>
+        <f t="shared" si="2"/>
+        <v>-385.15625</v>
       </c>
       <c r="E124" s="2">
-        <f>((C124*800)/1024)-100</f>
-        <v>385.15625</v>
+        <f t="shared" si="3"/>
+        <v>-666.40625</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3061,12 +3061,12 @@
         <v>970</v>
       </c>
       <c r="D125" s="2">
-        <f>((B125*800)/1024)-100</f>
-        <v>678.125</v>
+        <f t="shared" si="2"/>
+        <v>-657.8125</v>
       </c>
       <c r="E125" s="2">
-        <f>((C125*800)/1024)-100</f>
-        <v>657.8125</v>
+        <f t="shared" si="3"/>
+        <v>-678.125</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3103,12 +3103,12 @@
         <v>255</v>
       </c>
       <c r="D127" s="2">
-        <f>((B127*800)/1024)-100</f>
-        <v>109.375</v>
+        <f t="shared" si="2"/>
+        <v>-99.21875</v>
       </c>
       <c r="E127" s="2">
-        <f>((C127*800)/1024)-100</f>
-        <v>99.21875</v>
+        <f t="shared" si="3"/>
+        <v>-109.375</v>
       </c>
       <c r="F127">
         <v>26.83</v>
@@ -3125,12 +3125,12 @@
         <v>990</v>
       </c>
       <c r="D128" s="2">
-        <f>((B128*800)/1024)-100</f>
-        <v>35.9375</v>
+        <f t="shared" si="2"/>
+        <v>-673.4375</v>
       </c>
       <c r="E128" s="2">
-        <f>((C128*800)/1024)-100</f>
-        <v>673.4375</v>
+        <f t="shared" si="3"/>
+        <v>-35.9375</v>
       </c>
       <c r="F128">
         <f>27.76-90</f>
@@ -3148,12 +3148,12 @@
         <v>264</v>
       </c>
       <c r="D129" s="2">
-        <f>((B129*800)/1024)-100</f>
-        <v>220.3125</v>
+        <f t="shared" si="2"/>
+        <v>-106.25</v>
       </c>
       <c r="E129" s="2">
-        <f>((C129*800)/1024)-100</f>
-        <v>106.25</v>
+        <f t="shared" si="3"/>
+        <v>-220.3125</v>
       </c>
       <c r="F129">
         <f>30.32-270</f>
@@ -3171,12 +3171,12 @@
         <v>389</v>
       </c>
       <c r="D130" s="2">
-        <f>((B130*800)/1024)-100</f>
-        <v>475.78125</v>
+        <f t="shared" si="2"/>
+        <v>-203.90625</v>
       </c>
       <c r="E130" s="2">
-        <f>((C130*800)/1024)-100</f>
-        <v>203.90625</v>
+        <f t="shared" si="3"/>
+        <v>-475.78125</v>
       </c>
       <c r="F130">
         <f>17.77-270</f>
@@ -3194,12 +3194,12 @@
         <v>575</v>
       </c>
       <c r="D131" s="2">
-        <f>((B131*800)/1024)-100</f>
-        <v>214.84375</v>
+        <f t="shared" ref="D131:D139" si="4">-(((C131*800)/1024)-100)</f>
+        <v>-349.21875</v>
       </c>
       <c r="E131" s="2">
-        <f>((C131*800)/1024)-100</f>
-        <v>349.21875</v>
+        <f t="shared" ref="E131:E139" si="5">-(((B131*800)/1024)-100)</f>
+        <v>-214.84375</v>
       </c>
       <c r="F131">
         <f>19.8-360</f>
@@ -3217,12 +3217,12 @@
         <v>418</v>
       </c>
       <c r="D132" s="2">
-        <f>((B132*800)/1024)-100</f>
-        <v>678.90625</v>
+        <f t="shared" si="4"/>
+        <v>-226.5625</v>
       </c>
       <c r="E132" s="2">
-        <f>((C132*800)/1024)-100</f>
-        <v>226.5625</v>
+        <f t="shared" si="5"/>
+        <v>-678.90625</v>
       </c>
       <c r="F132">
         <f>17.65-180</f>
@@ -3240,12 +3240,12 @@
         <v>28</v>
       </c>
       <c r="D133" s="2">
-        <f>((B133*800)/1024)-100</f>
-        <v>151.5625</v>
+        <f t="shared" si="4"/>
+        <v>78.125</v>
       </c>
       <c r="E133" s="2">
-        <f>((C133*800)/1024)-100</f>
-        <v>-78.125</v>
+        <f t="shared" si="5"/>
+        <v>-151.5625</v>
       </c>
       <c r="F133">
         <v>-270</v>
@@ -3262,12 +3262,12 @@
         <v>661</v>
       </c>
       <c r="D134" s="2">
-        <f>((B134*800)/1024)-100</f>
-        <v>-25.78125</v>
+        <f t="shared" si="4"/>
+        <v>-416.40625</v>
       </c>
       <c r="E134" s="2">
-        <f>((C134*800)/1024)-100</f>
-        <v>416.40625</v>
+        <f t="shared" si="5"/>
+        <v>25.78125</v>
       </c>
       <c r="F134">
         <f>41.74-270</f>
@@ -3285,12 +3285,12 @@
         <v>967</v>
       </c>
       <c r="D135" s="2">
-        <f>((B135*800)/1024)-100</f>
-        <v>613.28125</v>
+        <f t="shared" si="4"/>
+        <v>-655.46875</v>
       </c>
       <c r="E135" s="2">
-        <f>((C135*800)/1024)-100</f>
-        <v>655.46875</v>
+        <f t="shared" si="5"/>
+        <v>-613.28125</v>
       </c>
       <c r="F135">
         <f>61.9-180</f>
@@ -3308,12 +3308,12 @@
         <v>833</v>
       </c>
       <c r="D136" s="2">
-        <f>((B136*800)/1024)-100</f>
-        <v>14.84375</v>
+        <f t="shared" si="4"/>
+        <v>-550.78125</v>
       </c>
       <c r="E136" s="2">
-        <f>((C136*800)/1024)-100</f>
-        <v>550.78125</v>
+        <f t="shared" si="5"/>
+        <v>-14.84375</v>
       </c>
       <c r="F136">
         <v>17.649999999999999</v>
@@ -3330,17 +3330,25 @@
         <v>661</v>
       </c>
       <c r="D137" s="2">
-        <f>((B137*800)/1024)-100</f>
-        <v>503.90625</v>
+        <f t="shared" si="4"/>
+        <v>-416.40625</v>
       </c>
       <c r="E137" s="2">
-        <f>((C137*800)/1024)-100</f>
-        <v>416.40625</v>
+        <f t="shared" si="5"/>
+        <v>-503.90625</v>
       </c>
       <c r="F137">
         <f>24.27-90</f>
         <v>-65.73</v>
       </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:F137">

--- a/Documentos/PosicionesObjetos.xlsx
+++ b/Documentos/PosicionesObjetos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\OneDrive\Documentos\() UNAMCOMPUTACION\11vo\Computación Grafica Avanzada\Proyecto2\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1971955-8B16-4080-ADC1-A85976A76B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713BBAC7-24E0-47C0-92ED-55F08967B675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4452" yWindow="0" windowWidth="12552" windowHeight="12360" xr2:uid="{2087185A-5EFE-4DDD-AE7D-767E05F9C834}"/>
   </bookViews>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89243601-6424-426B-A9E9-401D3AA38A7E}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2841,7 +2841,7 @@
         <v>143</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="2"/>
+        <f>-(((C115*800)/1024)-100)</f>
         <v>-11.71875</v>
       </c>
       <c r="E115" s="2">
@@ -3194,11 +3194,11 @@
         <v>575</v>
       </c>
       <c r="D131" s="2">
-        <f t="shared" ref="D131:D139" si="4">-(((C131*800)/1024)-100)</f>
+        <f t="shared" ref="D131:D137" si="4">-(((C131*800)/1024)-100)</f>
         <v>-349.21875</v>
       </c>
       <c r="E131" s="2">
-        <f t="shared" ref="E131:E139" si="5">-(((B131*800)/1024)-100)</f>
+        <f t="shared" ref="E131:E137" si="5">-(((B131*800)/1024)-100)</f>
         <v>-214.84375</v>
       </c>
       <c r="F131">
@@ -3244,7 +3244,7 @@
         <v>78.125</v>
       </c>
       <c r="E133" s="2">
-        <f t="shared" si="5"/>
+        <f>-(((B133*800)/1024)-100)</f>
         <v>-151.5625</v>
       </c>
       <c r="F133">

--- a/Documentos/PosicionesObjetos.xlsx
+++ b/Documentos/PosicionesObjetos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\OneDrive\Documentos\() UNAMCOMPUTACION\11vo\Computación Grafica Avanzada\Proyecto2\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713BBAC7-24E0-47C0-92ED-55F08967B675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB65D53E-A73C-4F9B-ACBA-697C653FDDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4452" yWindow="0" windowWidth="12552" windowHeight="12360" xr2:uid="{2087185A-5EFE-4DDD-AE7D-767E05F9C834}"/>
+    <workbookView xWindow="9324" yWindow="0" windowWidth="12552" windowHeight="12360" xr2:uid="{2087185A-5EFE-4DDD-AE7D-767E05F9C834}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +192,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89243601-6424-426B-A9E9-401D3AA38A7E}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1861,7 +1882,7 @@
       <c r="B67" s="2">
         <v>453</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="8">
         <v>183</v>
       </c>
       <c r="D67" s="2">
@@ -2001,11 +2022,11 @@
       <c r="C73" s="2">
         <v>656</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="7">
         <f t="shared" si="2"/>
         <v>-412.5</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="7">
         <f t="shared" si="3"/>
         <v>-351.5625</v>
       </c>
